--- a/Tables/MeasurementOrFact.xlsx
+++ b/Tables/MeasurementOrFact.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rscully\Documents\Projects\Habitat Data Sharing\2019_2020\Code\Stream-Monitoring-Data-Exchange-Specifications\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D6E5B3-990B-4CD9-A9FF-73EC560F3236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EBDBA4-5392-40EF-8076-46B797EFBD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3FBBD37E-6180-4D1B-AECA-48C555980CD4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3FBBD37E-6180-4D1B-AECA-48C555980CD4}"/>
   </bookViews>
   <sheets>
     <sheet name="MeasurmentOrFact" sheetId="1" r:id="rId1"/>
@@ -545,13 +545,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EC1B51-A8CA-41BB-A7C3-E61C2E9A7BA3}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="54.54296875" style="1" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="61.36328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.1796875" style="1" customWidth="1"/>
@@ -561,7 +561,7 @@
     <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>47</v>
       </c>
